--- a/biology/Médecine/Syndrome_de_Smith-Magenis/Syndrome_de_Smith-Magenis.xlsx
+++ b/biology/Médecine/Syndrome_de_Smith-Magenis/Syndrome_de_Smith-Magenis.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H7"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Le syndrome de Smith-Magenis est l'association d'un visage caractéristique, d'un retard de développement, de troubles cognitifs et d'anomalies du comportement.
@@ -522,7 +534,9 @@
           <t>Étiologie</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Délétion du locus p11.2 du chromosome 17. Cette délétion est comprise entre 2 et 9 millions de paires de base. Beaucoup des caractéristiques de ce syndrome sont en rapport avec l'atteinte du gène RAI1 (en) 607642
 </t>
@@ -553,7 +567,9 @@
           <t>Diagnostic différentiel</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Le diagnostic définitif se fait par caryotype de type FISH.
 Microdélétion 22q11
@@ -588,7 +604,9 @@
           <t>Traitement et prise en charge</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t xml:space="preserve">La prise en charge comprend avant tout
 - prise en charge des troubles du sommeil
@@ -623,11 +641,13 @@
           <t>Sources</t>
         </is>
       </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>(fr) Orphanet
-(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 182290 [1]
-(en) Ann CM Smith, Judith E Allanson, Sarah H Elsea, Brenda M Finucane, Barbara Haas-Givler, Andrea Gropman, Kyle P Johnson, James R Lupski, Ellen Magenis, Lorraine Potocki, Beth Solomon, In Smith-Magenis Syndrome GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 [2]</t>
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">(fr) Orphanet
+(en) Online Mendelian Inheritance in Man, OMIM (TM). Johns Hopkins University, Baltimore, MD. MIM Number: 182290 
+(en) Ann CM Smith, Judith E Allanson, Sarah H Elsea, Brenda M Finucane, Barbara Haas-Givler, Andrea Gropman, Kyle P Johnson, James R Lupski, Ellen Magenis, Lorraine Potocki, Beth Solomon, In Smith-Magenis Syndrome GeneTests: Medical Genetics Information Resource (database online). Copyright, University of Washington, Seattle. 1993-2005 </t>
         </is>
       </c>
     </row>
@@ -655,7 +675,9 @@
           <t>Associations</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
+      <c r="F7" t="inlineStr"/>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
         <is>
           <t xml:space="preserve">Association Smith-Magenis - ASM17 France
 Syndrome de Smith Magenis France
